--- a/data/raw/the-dog-house-royal-hunt.xlsx
+++ b/data/raw/the-dog-house-royal-hunt.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -496,9 +496,53 @@
         <v>2025-08-12 19:28:12.747</v>
       </c>
     </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str">
+        <v>The Dog House - Royal Hunt</v>
+      </c>
+      <c r="B6" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+111%</v>
+      </c>
+      <c r="C6" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+53.24%</v>
+      </c>
+      <c r="D6" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+85.29%</v>
+      </c>
+      <c r="E6" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.53%</v>
+      </c>
+      <c r="F6" t="str">
+        <v>2025-08-12 19:46:16.245</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v>2025-08-12 19:56:27.947</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F7"/>
   </ignoredErrors>
 </worksheet>
 </file>